--- a/dynare/reg_model_v2_inv_SS_values.xlsx
+++ b/dynare/reg_model_v2_inv_SS_values.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10,17 +10,17 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C84A252C-1130-4C86-8D99-15BD3E268942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="9810" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="9810" windowHeight="15585"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="116" uniqueCount="58">
   <si>
     <t>alpha1</t>
   </si>
@@ -199,7 +199,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -223,12 +223,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="9" tint="0.79998168889431"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -236,15 +236,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -264,7 +266,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -415,7 +417,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -439,9 +441,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -465,7 +467,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -500,7 +502,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="false">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -518,7 +520,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -543,7 +545,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -559,172 +561,172 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView tabSelected="true" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" customWidth="true"/>
+    <col min="2" max="2" width="9.5703125" style="1" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+        <v>0.40000000000000002</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+        <v>0.29999999999999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>0.98499999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
+    <row r="4">
+      <c r="A4" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>0.79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
+        <v>0.79000000000000004</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1">
         <v>2.4300000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
+    <row r="6">
+      <c r="A6" s="0" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1">
         <v>0.16</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
+    <row r="7">
+      <c r="A7" s="0" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
+        <v>0.025000000000000001</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
+        <v>0.80000000000000004</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
+        <v>0.94999999999999996</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
+        <v>0.94999999999999996</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
+        <v>0.90000000000000002</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
+    <row r="13">
+      <c r="A13" s="0" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
+    <row r="14">
+      <c r="A14" s="0" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="1">
         <v>1.5</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
+    <row r="15">
+      <c r="A15" s="0" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
+    <row r="16">
+      <c r="A16" s="0" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
+        <v>0.69999999999999996</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
+        <v>0.40000000000000002</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
+    <row r="19">
+      <c r="A19" s="0" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>0.69999999999999996</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -732,7 +734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -740,7 +742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -748,15 +750,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.69999999999999996</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
@@ -764,7 +766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
@@ -772,7 +774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
@@ -780,7 +782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27">
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
@@ -788,15 +790,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28">
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>4.0228426395939043E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.040228426395939043</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
@@ -804,7 +806,7 @@
         <v>1.8420227750373133</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30">
       <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
@@ -812,7 +814,7 @@
         <v>1.9601317042077893</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31">
       <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
@@ -820,7 +822,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32">
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
@@ -828,7 +830,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33">
       <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
@@ -836,7 +838,7 @@
         <v>2.2208333461466796</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34">
       <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
@@ -844,7 +846,7 @@
         <v>0.82211062847237915</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35">
       <c r="A35" s="2" t="s">
         <v>34</v>
       </c>
@@ -852,7 +854,7 @@
         <v>4.3956740882165919</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36">
       <c r="A36" s="2" t="s">
         <v>35</v>
       </c>
@@ -860,7 +862,7 @@
         <v>1.3514010090558433</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37">
       <c r="A37" s="2" t="s">
         <v>36</v>
       </c>
@@ -868,7 +870,7 @@
         <v>0.21750788643533145</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38">
       <c r="A38" s="2" t="s">
         <v>37</v>
       </c>
@@ -876,7 +878,7 @@
         <v>0.16313091482649858</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39">
       <c r="A39" s="2" t="s">
         <v>38</v>
       </c>
@@ -884,7 +886,7 @@
         <v>2.6810920394990245</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40">
       <c r="A40" s="2" t="s">
         <v>39</v>
       </c>
@@ -892,7 +894,7 @@
         <v>1.3150115001187337</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41">
       <c r="A41" s="2" t="s">
         <v>40</v>
       </c>
@@ -900,7 +902,7 @@
         <v>3.9961035396177582</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42">
       <c r="A42" s="2" t="s">
         <v>41</v>
       </c>
@@ -908,7 +910,7 @@
         <v>2.0979333766489998</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43">
       <c r="A43" s="2" t="s">
         <v>42</v>
       </c>
@@ -916,7 +918,7 @@
         <v>1.1004924710969983</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44">
       <c r="A44" s="2" t="s">
         <v>43</v>
       </c>
@@ -924,7 +926,7 @@
         <v>0.58315866285002504</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45">
       <c r="A45" s="2" t="s">
         <v>44</v>
       </c>
@@ -932,7 +934,7 @@
         <v>0.21451902902173528</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46">
       <c r="A46" s="2" t="s">
         <v>45</v>
       </c>
@@ -940,7 +942,7 @@
         <v>23.326346514000999</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47">
       <c r="A47" s="2" t="s">
         <v>46</v>
       </c>
@@ -948,7 +950,7 @@
         <v>8.580761160869411</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48">
       <c r="A48" s="2" t="s">
         <v>47</v>
       </c>
@@ -956,7 +958,7 @@
         <v>2.7051087422088744</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49">
       <c r="A49" s="2" t="s">
         <v>48</v>
       </c>
@@ -964,7 +966,7 @@
         <v>0.86284407313568023</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50">
       <c r="A50" s="2" t="s">
         <v>49</v>
       </c>
@@ -972,7 +974,7 @@
         <v>1.1593323180895179</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51">
       <c r="A51" s="2" t="s">
         <v>50</v>
       </c>
@@ -980,7 +982,7 @@
         <v>1.2942661097035202</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52">
       <c r="A52" s="2" t="s">
         <v>51</v>
       </c>
@@ -988,7 +990,7 @@
         <v>0.63380411825103311</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53">
       <c r="A53" s="2" t="s">
         <v>52</v>
       </c>
@@ -996,40 +998,40 @@
         <v>0.9797276861866836</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
-      <c r="A54" t="s">
+    <row r="54">
+      <c r="A54" s="0" t="s">
         <v>53</v>
       </c>
       <c r="B54" s="1">
         <v>0.67092656957419095</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
-      <c r="A55" t="s">
+    <row r="55">
+      <c r="A55" s="0" t="s">
         <v>54</v>
       </c>
       <c r="B55" s="1">
         <v>0.67092656957419095</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
-      <c r="A56" t="s">
+    <row r="56">
+      <c r="A56" s="0" t="s">
         <v>55</v>
       </c>
       <c r="B56" s="1">
-        <v>4.0228426395939043E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" t="s">
+        <v>0.040228426395939043</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="s">
         <v>56</v>
       </c>
       <c r="B57" s="1">
         <v>0.78249211356466863</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
-      <c r="A58" t="s">
+    <row r="58">
+      <c r="A58" s="0" t="s">
         <v>57</v>
       </c>
       <c r="B58" s="1">
@@ -1037,6 +1039,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
 </worksheet>
 </file>
--- a/dynare/reg_model_v2_inv_SS_values.xlsx
+++ b/dynare/reg_model_v2_inv_SS_values.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\apps\gdrive\projects\masterthesis\dynare\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C84A252C-1130-4C86-8D99-15BD3E268942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A20FE22F-FCC6-46C0-8CA3-AF62F5A6C03E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="9810" windowHeight="15585"/>
+    <workbookView xWindow="5865" yWindow="1965" windowWidth="15540" windowHeight="12555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" fullCalcOnLoad="true"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="116" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>alpha1</t>
   </si>
@@ -199,10 +199,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -214,21 +214,15 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -236,17 +230,15 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -266,7 +258,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -417,7 +409,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -441,9 +433,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -467,7 +459,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -502,7 +494,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="false">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -520,7 +512,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -545,7 +537,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -561,484 +553,484 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B58"/>
   <sheetViews>
-    <sheetView tabSelected="true" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="true"/>
-    <col min="2" max="2" width="9.5703125" style="1" customWidth="true"/>
+    <col min="1" max="1" width="11.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
-        <v>0.40000000000000002</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
+      <c r="B1" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>0.29999999999999999</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
+      <c r="B2" s="2">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>0.98499999999999999</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <v>0.79000000000000004</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
+      <c r="B4" s="2">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="2">
         <v>2.4300000000000002</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="2">
         <v>0.16</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
-        <v>0.025000000000000001</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
+      <c r="B7" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
-        <v>0.80000000000000004</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
+      <c r="B8" s="2">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
-        <v>0.94999999999999996</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="s">
+      <c r="B9" s="2">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
-        <v>0.94999999999999996</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="s">
+      <c r="B10" s="2">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
-        <v>0.90000000000000002</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="s">
+      <c r="B11" s="2">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="2">
         <v>1.5</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="0" t="s">
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="1">
-        <v>0.69999999999999996</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0" t="s">
+      <c r="B16" s="2">
+        <v>0.52800000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="1">
-        <v>0.40000000000000002</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0" t="s">
+      <c r="B17" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="0" t="s">
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="1">
-        <v>0.69999999999999996</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="s">
+      <c r="B19" s="2">
+        <v>0.71509999999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="1">
-        <v>0.69999999999999996</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="s">
+      <c r="B23" s="2">
+        <v>0.71509999999999996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="2" t="s">
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="2" t="s">
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="2" t="s">
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="2" t="s">
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="1">
-        <v>0.040228426395939043</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="s">
+      <c r="B28" s="2">
+        <v>4.0228426395939043E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="1">
-        <v>1.8420227750373133</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="s">
+      <c r="B29" s="2">
+        <v>1.996864818769237</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="1">
-        <v>1.9601317042077893</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="s">
+      <c r="B30" s="2">
+        <v>1.3688293017167155</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="2">
         <v>0.875</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="2" t="s">
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="2">
         <v>0.875</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="2" t="s">
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="2">
         <v>2.2208333461466796</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="2" t="s">
+    <row r="34" spans="1:2">
+      <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="1">
-        <v>0.82211062847237915</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="s">
+      <c r="B34" s="2">
+        <v>0.84756168801005294</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="2">
         <v>4.3956740882165919</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="2" t="s">
+    <row r="36" spans="1:2">
+      <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="1">
-        <v>1.3514010090558433</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="s">
+      <c r="B36" s="2">
+        <v>1.3889966162738772</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="2">
         <v>0.21750788643533145</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="2" t="s">
+    <row r="38" spans="1:2">
+      <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="2">
         <v>0.16313091482649858</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="2" t="s">
+    <row r="39" spans="1:2">
+      <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="1">
-        <v>2.6810920394990245</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="s">
+      <c r="B39" s="2">
+        <v>0.318</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="1">
-        <v>1.3150115001187337</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="s">
+      <c r="B40" s="2">
+        <v>0.68199999999999994</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="1">
-        <v>3.9961035396177582</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="s">
+      <c r="B41" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="1">
-        <v>2.0979333766489998</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="s">
+      <c r="B42" s="2">
+        <v>10.380186218335217</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="1">
-        <v>1.1004924710969983</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="s">
+      <c r="B43" s="2">
+        <v>1.8508145574961794</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="1">
-        <v>0.58315866285002504</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="s">
+      <c r="B44" s="2">
+        <v>6.91675078864354E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B45" s="1">
-        <v>0.21451902902173528</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="s">
+      <c r="B45" s="2">
+        <v>0.11125528391167203</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B46" s="1">
-        <v>23.326346514000999</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="s">
+      <c r="B46" s="2">
+        <v>2.7667003154574159</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="1">
-        <v>8.580761160869411</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="s">
+      <c r="B47" s="2">
+        <v>4.4502113564668804</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B48" s="1">
-        <v>2.7051087422088744</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="s">
+      <c r="B48" s="2">
+        <v>10.944293538640114</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B49" s="1">
-        <v>0.86284407313568023</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="s">
+      <c r="B49" s="2">
+        <v>0.24067767384273955</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B50" s="1">
-        <v>1.1593323180895179</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="s">
+      <c r="B50" s="2">
+        <v>9.783535133026767</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B51" s="1">
-        <v>1.2942661097035202</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="s">
+      <c r="B51" s="2">
+        <v>2.2927715245018874</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B52" s="1">
-        <v>0.63380411825103311</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="s">
+      <c r="B52" s="2">
+        <v>7.517448361880523E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B53" s="1">
-        <v>0.9797276861866836</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="0" t="s">
+      <c r="B53" s="2">
+        <v>0.49285498142413126</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B54" s="1">
-        <v>0.67092656957419095</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="0" t="s">
+      <c r="B54" s="2">
+        <v>0.318</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B55" s="1">
-        <v>0.67092656957419095</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="0" t="s">
+      <c r="B55" s="2">
+        <v>0.318</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B56" s="1">
-        <v>0.040228426395939043</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="0" t="s">
+      <c r="B56" s="2">
+        <v>4.0228426395939043E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B57" s="1">
-        <v>0.78249211356466863</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="0" t="s">
+      <c r="B57" s="2">
+        <v>32.642095026211372</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B58" s="1">
-        <v>0.83686908517350134</v>
+      <c r="B58" s="2">
+        <v>2.713804336504662</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>